--- a/交易监控/价差套利.xlsx
+++ b/交易监控/价差套利.xlsx
@@ -5248,161 +5248,161 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>0</v>
+        <v>5789.4000000000005</v>
         <stp/>
         <stp>IC1812.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C21" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3829.8</v>
         <stp/>
         <stp>IF1812.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C16" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2719.2000000000003</v>
         <stp/>
         <stp>IH1812.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3903</v>
         <stp/>
         <stp>IF1806.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C14" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2716</v>
         <stp/>
         <stp>IH1809.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3879</v>
         <stp/>
         <stp>IF1805.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>5975.8</v>
         <stp/>
         <stp>IC1806.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C19" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>5969</v>
         <stp/>
         <stp>IC1805.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C18" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>5871</v>
         <stp/>
         <stp>IC1809.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C20" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2720.2000000000003</v>
         <stp/>
         <stp>IH1805.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2736.4</v>
         <stp/>
         <stp>IH1806.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3849</v>
         <stp/>
         <stp>IF1809.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C15" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2715.6</v>
         <stp/>
         <stp>IH1812.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B11" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3824.4</v>
         <stp/>
         <stp>IF1812.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B16" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>5775.8</v>
         <stp/>
         <stp>IC1812.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2735.2000000000003</v>
         <stp/>
         <stp>IH1806.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2720</v>
         <stp/>
         <stp>IH1805.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>5867.8</v>
         <stp/>
         <stp>IC1809.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>5967</v>
         <stp/>
         <stp>IC1805.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B18" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>5975</v>
         <stp/>
         <stp>IC1806.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3878.8</v>
         <stp/>
         <stp>IF1805.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B13" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2714</v>
         <stp/>
         <stp>IH1809.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3902.6</v>
         <stp/>
         <stp>IF1806.CFE</stp>
         <stp>Bid_Price1</stp>
@@ -5410,7 +5410,7 @@
         <tr r="B15" s="1"/>
       </tp>
       <tp>
-        <v>706</v>
+        <v>28</v>
         <stp/>
         <stp>M.DCE</stp>
         <stp>Ask_Volume1</stp>
@@ -5418,7 +5418,7 @@
         <tr r="J4" s="1"/>
       </tp>
       <tp>
-        <v>3861</v>
+        <v>204</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>Ask_Volume1</stp>
@@ -5426,7 +5426,7 @@
         <tr r="J2" s="1"/>
       </tp>
       <tp>
-        <v>5414</v>
+        <v>5515</v>
         <stp/>
         <stp>SR.CZC</stp>
         <stp>Bid_Price1</stp>
@@ -5434,7 +5434,7 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>3112</v>
+        <v>2957</v>
         <stp/>
         <stp>M.DCE</stp>
         <stp>Ask_Price1</stp>
@@ -5442,7 +5442,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>3648</v>
+        <v>3613</v>
         <stp/>
         <stp>RB.SHF</stp>
         <stp>Bid_Price1</stp>
@@ -5450,7 +5450,7 @@
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>1825</v>
+        <v>871</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>Bid_Volume1</stp>
@@ -5458,7 +5458,7 @@
         <tr r="I2" s="1"/>
       </tp>
       <tp>
-        <v>496</v>
+        <v>10</v>
         <stp/>
         <stp>M.DCE</stp>
         <stp>Bid_Volume1</stp>
@@ -5466,7 +5466,7 @@
         <tr r="I4" s="1"/>
       </tp>
       <tp>
-        <v>472.5</v>
+        <v>462.5</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>Rt_Price</stp>
@@ -5474,7 +5474,7 @@
         <tr r="H2" s="1"/>
       </tp>
       <tp>
-        <v>472.5</v>
+        <v>463</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>Ask_Price1</stp>
@@ -5482,14 +5482,14 @@
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>0.43</v>
+        <v>0.34</v>
         <stp/>
         <stp>HSI.HI</stp>
         <stp>PctChg</stp>
         <tr r="E24" s="1"/>
       </tp>
       <tp>
-        <v>3111</v>
+        <v>2956</v>
         <stp/>
         <stp>M.DCE</stp>
         <stp>Bid_Price1</stp>
@@ -5497,7 +5497,7 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>472</v>
+        <v>462.5</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>Bid_Price1</stp>
@@ -5505,52 +5505,52 @@
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>3649</v>
+        <v>3615</v>
         <stp/>
         <stp>RB.SHF</stp>
         <stp>Ask_Price1</stp>
+        <tr r="H3" s="1"/>
         <tr r="G3" s="1"/>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>5415</v>
+      </tp>
+      <tp>
+        <v>5516</v>
         <stp/>
         <stp>SR.CZC</stp>
         <stp>Ask_Price1</stp>
+        <tr r="G5" s="1"/>
         <tr r="H5" s="1"/>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
+      </tp>
+      <tp>
+        <v>2735.2000000000003</v>
         <stp/>
         <stp>IH1806.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3849</v>
         <stp/>
         <stp>IF1809.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2720</v>
         <stp/>
         <stp>IH1805.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>5871</v>
         <stp/>
         <stp>IC1809.CFE</stp>
         <stp>Rt_Price</stp>
+        <tr r="I20" s="1"/>
         <tr r="D20" s="1"/>
-        <tr r="I20" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
+      </tp>
+      <tp>
+        <v>5967.2</v>
         <stp/>
         <stp>IC1805.CFE</stp>
         <stp>Rt_Price</stp>
@@ -5558,7 +5558,7 @@
         <tr r="I18" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>5975.2</v>
         <stp/>
         <stp>IC1806.CFE</stp>
         <stp>Rt_Price</stp>
@@ -5566,64 +5566,64 @@
         <tr r="I19" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3878.8</v>
         <stp/>
         <stp>IF1805.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D13" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3903</v>
         <stp/>
         <stp>IF1806.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2715</v>
         <stp/>
         <stp>IH1809.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2715.6</v>
         <stp/>
         <stp>IH1812.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3824.6</v>
         <stp/>
         <stp>IF1812.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>5779.2</v>
         <stp/>
         <stp>IC1812.CFE</stp>
         <stp>Rt_Price</stp>
+        <tr r="D21" s="1"/>
         <tr r="I21" s="1"/>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.16</v>
+      </tp>
+      <tp>
+        <v>-1.18</v>
         <stp/>
         <stp>RB.SHF</stp>
         <stp>PctChg</stp>
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>-6.9999999999999993E-2</v>
+        <v>0.02</v>
         <stp/>
         <stp>SR.CZC</stp>
         <stp>PctChg</stp>
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>78</v>
+        <v>64</v>
         <stp/>
         <stp>SR.CZC</stp>
         <stp>Bid_Volume1</stp>
@@ -5631,7 +5631,7 @@
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>117</v>
+        <v>300</v>
         <stp/>
         <stp>RB.SHF</stp>
         <stp>Ask_Volume1</stp>
@@ -5639,28 +5639,28 @@
         <tr r="J3" s="1"/>
       </tp>
       <tp>
-        <v>0.01</v>
+        <v>1.0100000000000002</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>PctChg</stp>
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>0.04</v>
+        <v>1.6400000000000001</v>
         <stp/>
         <stp>510050.SH</stp>
         <stp>PctChg</stp>
         <tr r="C2" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.4700000000000002</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>PctChg</stp>
         <tr r="C1" s="1"/>
       </tp>
       <tp>
-        <v>550</v>
+        <v>5</v>
         <stp/>
         <stp>RB.SHF</stp>
         <stp>Bid_Volume1</stp>
@@ -5668,21 +5668,21 @@
         <tr r="I3" s="1"/>
       </tp>
       <tp>
-        <v>0.58000000000000007</v>
+        <v>0.62000000000000011</v>
         <stp/>
         <stp>HSCEI.HI</stp>
         <stp>PctChg</stp>
         <tr r="E25" s="1"/>
       </tp>
       <tp>
-        <v>6.9999999999999993E-2</v>
+        <v>0.36000000000000004</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>PctChg</stp>
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>199</v>
+        <v>297</v>
         <stp/>
         <stp>SR.CZC</stp>
         <stp>Ask_Volume1</stp>
@@ -5690,161 +5690,161 @@
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>3.835</v>
+        <v>3.899</v>
         <stp/>
         <stp>510300.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="H24" s="1"/>
       </tp>
       <tp>
-        <v>3834.61</v>
+        <v>3903.06</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B4" s="1"/>
       </tp>
       <tp>
-        <v>2.6750000000000003</v>
+        <v>2.7330000000000001</v>
         <stp/>
         <stp>510050.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B2" s="1"/>
       </tp>
       <tp>
-        <v>2683.84</v>
+        <v>2740.53</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B1" s="1"/>
       </tp>
       <tp>
-        <v>2.8149999999999999</v>
+        <v>3.0700000000000003</v>
         <stp/>
         <stp>204002.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B25" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>3.09</v>
         <stp/>
         <stp>204001.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B24" s="1"/>
       </tp>
       <tp>
-        <v>3.1</v>
+        <v>3.3149999999999999</v>
         <stp/>
         <stp>204007.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>3.3000000000000003</v>
+        <v>4.125</v>
         <stp/>
         <stp>204014.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B27" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.49</v>
         <stp/>
         <stp>IF1812.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F16" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.93</v>
         <stp/>
         <stp>IC1812.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F21" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.6500000000000001</v>
         <stp/>
         <stp>IH1812.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.2</v>
         <stp/>
         <stp>IC1805.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F18" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.73</v>
         <stp/>
         <stp>IC1806.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F19" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.29000000000000004</v>
         <stp/>
         <stp>IF1805.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F13" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.4700000000000002</v>
         <stp/>
         <stp>IF1806.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.7500000000000002</v>
         <stp/>
         <stp>IH1809.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.7000000000000002</v>
         <stp/>
         <stp>IH1806.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.55</v>
         <stp/>
         <stp>IF1809.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F15" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.69000000000000006</v>
         <stp/>
         <stp>IH1805.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.98</v>
         <stp/>
         <stp>IC1809.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F20" s="1"/>
       </tp>
       <tp>
-        <v>6023.58</v>
+        <v>5995.1500000000005</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>0.85000000000000009</v>
+        <v>-3.75</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>PctChg</stp>
         <tr r="K2" s="1"/>
       </tp>
       <tp>
-        <v>-2.7800000000000002</v>
+        <v>-0.13999999999999999</v>
         <stp/>
         <stp>M.DCE</stp>
         <stp>PctChg</stp>
@@ -6145,7 +6145,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6171,11 +6171,11 @@
       </c>
       <c r="B1" s="16">
         <f>RTD("wdf.rtq", ,"000016.SH", "Rt_Price")</f>
-        <v>2683.84</v>
+        <v>2740.53</v>
       </c>
       <c r="C1" s="24">
         <f>RTD("wdf.rtq", ,"000016.SH", "PctChg")/100</f>
-        <v>0</v>
+        <v>1.4700000000000001E-2</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="10" t="s">
@@ -6200,11 +6200,11 @@
       </c>
       <c r="B2" s="11">
         <f>RTD("wdf.rtq", ,"510050.SH", "Rt_Price")</f>
-        <v>2.6750000000000003</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="C2" s="25">
         <f>RTD("wdf.rtq", ,"510050.SH", "PctChg")/100</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="22" t="s">
@@ -6212,27 +6212,27 @@
       </c>
       <c r="F2" s="22">
         <f>RTD("wdf.rtq", ,"I.DCE", "Bid_Price1","RT_Price")</f>
-        <v>472</v>
+        <v>462.5</v>
       </c>
       <c r="G2" s="22">
         <f>RTD("wdf.rtq", ,"I.DCE", "Ask_Price1","RT_Price")</f>
-        <v>472.5</v>
+        <v>463</v>
       </c>
       <c r="H2" s="22">
         <f>RTD("wdf.rtq", ,"I.DCE", "Rt_Price","RT_Price")</f>
-        <v>472.5</v>
+        <v>462.5</v>
       </c>
       <c r="I2" s="23">
         <f>RTD("wdf.rtq", ,"I.DCE", "Bid_Volume1","RT_Price")</f>
-        <v>1825</v>
+        <v>871</v>
       </c>
       <c r="J2" s="23">
         <f>RTD("wdf.rtq", ,"I.DCE", "Ask_Volume1","RT_Price")</f>
-        <v>3861</v>
+        <v>204</v>
       </c>
       <c r="K2" s="28">
         <f>RTD("wdf.rtq", ,"I.DCE", "PctChg")/100</f>
-        <v>8.5000000000000006E-3</v>
+        <v>-3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B3" s="14">
         <f>B2*1000-B1</f>
-        <v>-8.8399999999996908</v>
+        <v>-7.5300000000002001</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="12"/>
@@ -6250,27 +6250,27 @@
       </c>
       <c r="F3" s="22">
         <f>RTD("wdf.rtq", ,"RB.SHF", "Bid_Price1","RT_Price")</f>
-        <v>3648</v>
+        <v>3613</v>
       </c>
       <c r="G3" s="22">
         <f>RTD("wdf.rtq", ,"RB.SHF", "Ask_Price1")</f>
-        <v>3649</v>
+        <v>3615</v>
       </c>
       <c r="H3" s="22">
         <f>RTD("wdf.rtq", ,"RB.SHF", "Ask_Price1")</f>
-        <v>3649</v>
+        <v>3615</v>
       </c>
       <c r="I3" s="23">
         <f>RTD("wdf.rtq", ,"RB.SHF", "Bid_Volume1","RT_Price")</f>
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="J3" s="23">
         <f>RTD("wdf.rtq", ,"RB.SHF", "Ask_Volume1","RT_Price")</f>
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="K3" s="28">
         <f>RTD("wdf.rtq", ,"RB.SHF", "PctChg")/100</f>
-        <v>-1.6000000000000001E-3</v>
+        <v>-1.18E-2</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -6281,11 +6281,11 @@
       </c>
       <c r="B4" s="16">
         <f>RTD("wdf.rtq", ,"000300.SH", "Rt_Price")</f>
-        <v>3834.61</v>
+        <v>3903.06</v>
       </c>
       <c r="C4" s="25">
         <f>RTD("wdf.rtq", ,"000300.SH", "PctChg")/100</f>
-        <v>1E-4</v>
+        <v>1.0100000000000003E-2</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="22" t="s">
@@ -6293,27 +6293,27 @@
       </c>
       <c r="F4" s="22">
         <f>RTD("wdf.rtq", ,"M.DCE", "Bid_Price1","RT_Price")</f>
-        <v>3111</v>
+        <v>2956</v>
       </c>
       <c r="G4" s="22">
         <f>RTD("wdf.rtq", ,"M.DCE", "Ask_Price1")</f>
-        <v>3112</v>
+        <v>2957</v>
       </c>
       <c r="H4" s="22">
         <f>RTD("wdf.rtq", ,"M.DCE", "Ask_Price1")</f>
-        <v>3112</v>
+        <v>2957</v>
       </c>
       <c r="I4" s="23">
         <f>RTD("wdf.rtq", ,"M.DCE", "Bid_Volume1","RT_Price")</f>
-        <v>496</v>
+        <v>10</v>
       </c>
       <c r="J4" s="23">
         <f>RTD("wdf.rtq", ,"M.DCE", "Ask_Volume1","RT_Price")</f>
-        <v>706</v>
+        <v>28</v>
       </c>
       <c r="K4" s="28">
         <f>RTD("wdf.rtq", ,"M.DCE", "PctChg")/100</f>
-        <v>-2.7800000000000002E-2</v>
+        <v>-1.3999999999999998E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6322,11 +6322,11 @@
       </c>
       <c r="B5" s="16">
         <f>RTD("wdf.rtq", ,"000905.SH", "Rt_Price")</f>
-        <v>6023.58</v>
+        <v>5995.1500000000005</v>
       </c>
       <c r="C5" s="25">
         <f>RTD("wdf.rtq", ,"000905.SH", "PctChg")/100</f>
-        <v>6.9999999999999988E-4</v>
+        <v>3.6000000000000003E-3</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="22" t="s">
@@ -6334,27 +6334,27 @@
       </c>
       <c r="F5" s="22">
         <f>RTD("wdf.rtq", ,"SR.CZC", "Bid_Price1","RT_Price")</f>
-        <v>5414</v>
+        <v>5515</v>
       </c>
       <c r="G5" s="22">
         <f>RTD("wdf.rtq", ,"SR.CZC", "Ask_Price1")</f>
-        <v>5415</v>
+        <v>5516</v>
       </c>
       <c r="H5" s="22">
         <f>RTD("wdf.rtq", ,"SR.CZC", "Ask_Price1")</f>
-        <v>5415</v>
+        <v>5516</v>
       </c>
       <c r="I5" s="23">
         <f>RTD("wdf.rtq", ,"SR.CZC", "Bid_Volume1","RT_Price")</f>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J5" s="23">
         <f>RTD("wdf.rtq", ,"SR.CZC", "Ask_Volume1","RT_Price")</f>
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="K5" s="28">
         <f>RTD("wdf.rtq", ,"SR.CZC", "PctChg")/100</f>
-        <v>-6.9999999999999988E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6409,35 +6409,35 @@
       </c>
       <c r="B8" s="18">
         <f>RTD("wdf.rtq", ,"IH1805.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>2720</v>
       </c>
       <c r="C8" s="18">
         <f>RTD("wdf.rtq", ,"IH1805.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>2720.2000000000003</v>
       </c>
       <c r="D8" s="19">
         <f>RTD("wdf.rtq", ,"IH1805.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>2720</v>
       </c>
       <c r="E8" s="22">
         <f>D8-$B$1</f>
-        <v>-2683.84</v>
+        <v>-20.5300000000002</v>
       </c>
       <c r="F8" s="35">
         <f>RTD("wdf.rtq", ,"IH1805.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>6.9000000000000008E-3</v>
       </c>
       <c r="G8" s="20">
         <f>E8/$B$1</f>
-        <v>-1</v>
+        <v>-7.4912516921909989E-3</v>
       </c>
       <c r="H8" s="29">
         <f>$E8+K8-$L8</f>
-        <v>-2680.08</v>
+        <v>-16.770000000000202</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" ref="I8:I10" si="0">H8-$B$3</f>
-        <v>-2671.2400000000002</v>
+        <v>-9.240000000000002</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>47</v>
@@ -6453,35 +6453,35 @@
       </c>
       <c r="B9" s="18">
         <f>RTD("wdf.rtq", ,"IH1806.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>2735.2000000000003</v>
       </c>
       <c r="C9" s="18">
         <f>RTD("wdf.rtq", ,"IH1806.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>2736.4</v>
       </c>
       <c r="D9" s="19">
         <f>RTD("wdf.rtq", ,"IH1806.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>2735.2000000000003</v>
       </c>
       <c r="E9" s="22">
         <f>D9-$B$1</f>
-        <v>-2683.84</v>
+        <v>-5.3299999999999272</v>
       </c>
       <c r="F9" s="35">
         <f>RTD("wdf.rtq", ,"IH1806.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G9" s="20">
         <f>E9/$B$1</f>
-        <v>-1</v>
+        <v>-1.9448792751766727E-3</v>
       </c>
       <c r="H9" s="29">
         <f>$E9+K9-$L9</f>
-        <v>-2660.6800000000003</v>
+        <v>17.830000000000073</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="0"/>
-        <v>-2651.8400000000006</v>
+        <v>25.360000000000273</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>34</v>
@@ -6497,35 +6497,35 @@
       </c>
       <c r="B10" s="18">
         <f>RTD("wdf.rtq", ,"IH1809.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>2714</v>
       </c>
       <c r="C10" s="18">
         <f>RTD("wdf.rtq", ,"IH1809.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>2716</v>
       </c>
       <c r="D10" s="19">
         <f>RTD("wdf.rtq", ,"IH1809.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>2715</v>
       </c>
       <c r="E10" s="22">
         <f>D10-$B$1</f>
-        <v>-2683.84</v>
+        <v>-25.5300000000002</v>
       </c>
       <c r="F10" s="35">
         <f>RTD("wdf.rtq", ,"IH1809.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="G10" s="20">
         <f>E10/$B$1</f>
-        <v>-1</v>
+        <v>-9.3157163030509419E-3</v>
       </c>
       <c r="H10" s="29">
         <f>$E10+K10-$L10</f>
-        <v>-2614.71</v>
+        <v>43.599999999999795</v>
       </c>
       <c r="I10" s="37">
         <f t="shared" si="0"/>
-        <v>-2605.8700000000003</v>
+        <v>51.129999999999995</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>41</v>
@@ -6541,35 +6541,35 @@
       </c>
       <c r="B11" s="18">
         <f>RTD("wdf.rtq", ,"IH1812.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>2715.6</v>
       </c>
       <c r="C11" s="18">
         <f>RTD("wdf.rtq", ,"IH1812.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>2719.2000000000003</v>
       </c>
       <c r="D11" s="19">
         <f>RTD("wdf.rtq", ,"IH1812.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>2715.6</v>
       </c>
       <c r="E11" s="22">
         <f>D11-$B$1</f>
-        <v>-2683.84</v>
+        <v>-24.930000000000291</v>
       </c>
       <c r="F11" s="35">
         <f>RTD("wdf.rtq", ,"IH1812.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="G11" s="20">
         <f>E11/$B$1</f>
-        <v>-1</v>
+        <v>-9.0967805497477825E-3</v>
       </c>
       <c r="H11" s="29">
         <f>$E11+K11-$L11</f>
-        <v>-2613.11</v>
+        <v>45.799999999999713</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" ref="I11" si="1">H11-$B$3</f>
-        <v>-2604.2700000000004</v>
+        <v>53.329999999999913</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>50</v>
@@ -6599,35 +6599,35 @@
       </c>
       <c r="B13" s="18">
         <f>RTD("wdf.rtq", ,"IF1805.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>3878.8</v>
       </c>
       <c r="C13" s="18">
         <f>RTD("wdf.rtq", ,"IF1805.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>3879</v>
       </c>
       <c r="D13" s="19">
         <f>RTD("wdf.rtq", ,"IF1805.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>3878.8</v>
       </c>
       <c r="E13" s="22">
         <f>D13-$B$4</f>
-        <v>-3834.61</v>
+        <v>-24.259999999999764</v>
       </c>
       <c r="F13" s="35">
         <f>RTD("wdf.rtq", ,"IF1805.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>2.9000000000000002E-3</v>
       </c>
       <c r="G13" s="20">
         <f>E13/$B$4</f>
-        <v>-1</v>
+        <v>-6.2156359369314748E-3</v>
       </c>
       <c r="H13" s="29">
         <f>$E13+K13-L13</f>
-        <v>-3827.9</v>
+        <v>-17.549999999999763</v>
       </c>
       <c r="I13" s="37">
         <f>$H$25-H13</f>
-        <v>3828.29</v>
+        <v>13.489999999999817</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>47</v>
@@ -6645,35 +6645,35 @@
       </c>
       <c r="B14" s="18">
         <f>RTD("wdf.rtq", ,"IF1806.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>3902.6</v>
       </c>
       <c r="C14" s="18">
         <f>RTD("wdf.rtq", ,"IF1806.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>3903</v>
       </c>
       <c r="D14" s="19">
         <f>RTD("wdf.rtq", ,"IF1806.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>3903</v>
       </c>
       <c r="E14" s="22">
         <f>D14-$B$4</f>
-        <v>-3834.61</v>
+        <v>-5.999999999994543E-2</v>
       </c>
       <c r="F14" s="35">
         <f>RTD("wdf.rtq", ,"IF1806.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>1.4700000000000001E-2</v>
       </c>
       <c r="G14" s="20">
         <f>E14/$B$4</f>
-        <v>-1</v>
+        <v>-1.5372553842355852E-5</v>
       </c>
       <c r="H14" s="29">
         <f>$E14+K14-L14</f>
-        <v>-3808.48</v>
+        <v>26.070000000000054</v>
       </c>
       <c r="I14" s="37">
-        <f t="shared" ref="I13:I15" si="2">$H$25-H14</f>
-        <v>3808.87</v>
+        <f t="shared" ref="I14:I15" si="2">$H$25-H14</f>
+        <v>-30.13</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>34</v>
@@ -6691,35 +6691,35 @@
       </c>
       <c r="B15" s="18">
         <f>RTD("wdf.rtq", ,"IF1806.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>3902.6</v>
       </c>
       <c r="C15" s="18">
         <f>RTD("wdf.rtq", ,"IF1809.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>3849</v>
       </c>
       <c r="D15" s="19">
         <f>RTD("wdf.rtq", ,"IF1809.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>3849</v>
       </c>
       <c r="E15" s="22">
         <f>D15-$B$4</f>
-        <v>-3834.61</v>
+        <v>-54.059999999999945</v>
       </c>
       <c r="F15" s="35">
         <f>RTD("wdf.rtq", ,"IF1809.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>1.55E-2</v>
       </c>
       <c r="G15" s="20">
         <f>E15/$B$4</f>
-        <v>-1</v>
+        <v>-1.3850671011975206E-2</v>
       </c>
       <c r="H15" s="29">
         <f>$E15+K15-L15</f>
-        <v>-3761.33</v>
+        <v>19.220000000000052</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="2"/>
-        <v>3761.72</v>
+        <v>-23.279999999999998</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>41</v>
@@ -6737,35 +6737,35 @@
       </c>
       <c r="B16" s="18">
         <f>RTD("wdf.rtq", ,"IF1812.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>3824.4</v>
       </c>
       <c r="C16" s="18">
         <f>RTD("wdf.rtq", ,"IF1812.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>3829.8</v>
       </c>
       <c r="D16" s="19">
         <f>RTD("wdf.rtq", ,"IF1812.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>3824.6</v>
       </c>
       <c r="E16" s="22">
         <f>D16-$B$4</f>
-        <v>-3834.61</v>
+        <v>-78.460000000000036</v>
       </c>
       <c r="F16" s="35">
         <f>RTD("wdf.rtq", ,"IF1812.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>1.49E-2</v>
       </c>
       <c r="G16" s="20">
         <f>E16/$B$4</f>
-        <v>-1</v>
+        <v>-2.0102176241205628E-2</v>
       </c>
       <c r="H16" s="29">
         <f>$E16+K16-L16</f>
-        <v>-3759.88</v>
+        <v>-3.730000000000036</v>
       </c>
       <c r="I16" s="37">
         <f t="shared" ref="I16" si="3">$H$25-H16</f>
-        <v>3760.27</v>
+        <v>-0.32999999999990948</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>41</v>
@@ -6798,35 +6798,35 @@
       </c>
       <c r="B18" s="18">
         <f>RTD("wdf.rtq", ,"IC1805.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>5967</v>
       </c>
       <c r="C18" s="18">
         <f>RTD("wdf.rtq", ,"IC1805.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>5969</v>
       </c>
       <c r="D18" s="19">
         <f>RTD("wdf.rtq", ,"IC1805.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>5967.2</v>
       </c>
       <c r="E18" s="22">
         <f>D18-$B$5</f>
-        <v>-6023.58</v>
+        <v>-27.950000000000728</v>
       </c>
       <c r="F18" s="35">
         <f>RTD("wdf.rtq", ,"IC1805.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
       <c r="G18" s="20">
         <f>E18/$B$5</f>
-        <v>-1</v>
+        <v>-4.6621018656748748E-3</v>
       </c>
       <c r="H18" s="29">
         <f>$E18+K18</f>
-        <v>-6015.84</v>
+        <v>-20.210000000000726</v>
       </c>
       <c r="I18" s="37">
         <f>RTD("wdf.rtq", ,"IC1805.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>5967.2</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>47</v>
@@ -6844,35 +6844,35 @@
       </c>
       <c r="B19" s="18">
         <f>RTD("wdf.rtq", ,"IC1806.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>5975</v>
       </c>
       <c r="C19" s="18">
         <f>RTD("wdf.rtq", ,"IC1806.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>5975.8</v>
       </c>
       <c r="D19" s="19">
         <f>RTD("wdf.rtq", ,"IC1806.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>5975.2</v>
       </c>
       <c r="E19" s="22">
         <f>D19-$B$5</f>
-        <v>-6023.58</v>
+        <v>-19.950000000000728</v>
       </c>
       <c r="F19" s="35">
         <f>RTD("wdf.rtq", ,"IC1806.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="G19" s="20">
         <f>E19/$B$5</f>
-        <v>-1</v>
+        <v>-3.3276898826552674E-3</v>
       </c>
       <c r="H19" s="29">
         <f>$E19+K19</f>
-        <v>-5990.2</v>
+        <v>13.429999999999275</v>
       </c>
       <c r="I19" s="37">
         <f>RTD("wdf.rtq", ,"IC1806.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>5975.2</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>34</v>
@@ -6887,35 +6887,35 @@
       </c>
       <c r="B20" s="18">
         <f>RTD("wdf.rtq", ,"IC1809.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>5867.8</v>
       </c>
       <c r="C20" s="18">
         <f>RTD("wdf.rtq", ,"IC1809.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>5871</v>
       </c>
       <c r="D20" s="19">
         <f>RTD("wdf.rtq", ,"IC1809.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>5871</v>
       </c>
       <c r="E20" s="22">
         <f>D20-$B$5</f>
-        <v>-6023.58</v>
+        <v>-124.15000000000055</v>
       </c>
       <c r="F20" s="35">
         <f>RTD("wdf.rtq", ,"IC1809.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="G20" s="20">
         <f>E20/$B$5</f>
-        <v>-1</v>
+        <v>-2.0708405961485623E-2</v>
       </c>
       <c r="H20" s="29">
         <f>$E20+K20</f>
-        <v>-5965.12</v>
+        <v>-65.690000000000538</v>
       </c>
       <c r="I20" s="37">
         <f>RTD("wdf.rtq", ,"IC1809.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>5871</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>41</v>
@@ -6930,35 +6930,35 @@
       </c>
       <c r="B21" s="18">
         <f>RTD("wdf.rtq", ,"IC1812.CFE", "Bid_Price1")</f>
-        <v>0</v>
+        <v>5775.8</v>
       </c>
       <c r="C21" s="18">
         <f>RTD("wdf.rtq", ,"IC1812.CFE", "Ask_Price1")</f>
-        <v>0</v>
+        <v>5789.4000000000005</v>
       </c>
       <c r="D21" s="19">
         <f>RTD("wdf.rtq", ,"IC1812.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>5779.2</v>
       </c>
       <c r="E21" s="22">
         <f>D21-$B$5</f>
-        <v>-6023.58</v>
+        <v>-215.95000000000073</v>
       </c>
       <c r="F21" s="35">
         <f>RTD("wdf.rtq", ,"IC1812.CFE", "PctChg")/100</f>
-        <v>0</v>
+        <v>9.300000000000001E-3</v>
       </c>
       <c r="G21" s="20">
         <f>E21/$B$5</f>
-        <v>-1</v>
+        <v>-3.6020783466635647E-2</v>
       </c>
       <c r="H21" s="29">
         <f>$E21+K21</f>
-        <v>-5965.12</v>
+        <v>-157.49000000000072</v>
       </c>
       <c r="I21" s="37">
         <f>RTD("wdf.rtq", ,"IC1812.CFE", "Rt_Price")</f>
-        <v>0</v>
+        <v>5779.2</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>44</v>
@@ -6987,21 +6987,21 @@
       </c>
       <c r="B24" s="33">
         <f>RTD("wdf.rtq", ,"204001.SH", "Rt_Price")</f>
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="6">
         <f>RTD("wdf.rtq", ,"HSI.HI", "PctChg")/100</f>
-        <v>4.3E-3</v>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>38</v>
       </c>
       <c r="H24" s="39">
         <f>RTD("wdf.rtq", ,"510300.SH", "Rt_Price")</f>
-        <v>3.835</v>
+        <v>3.899</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="B25" s="33">
         <f>RTD("wdf.rtq", ,"204002.SH", "Rt_Price")</f>
-        <v>2.8149999999999999</v>
+        <v>3.0700000000000003</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="32" t="s">
@@ -7018,14 +7018,14 @@
       </c>
       <c r="E25" s="6">
         <f>RTD("wdf.rtq", ,"HSCEI.HI", "PctChg")/100</f>
-        <v>5.8000000000000005E-3</v>
+        <v>6.2000000000000006E-3</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="39">
         <f>H24*1000-B4</f>
-        <v>0.38999999999987267</v>
+        <v>-4.0599999999999454</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="B26" s="33">
         <f>RTD("wdf.rtq", ,"204007.SH", "Rt_Price")</f>
-        <v>3.1</v>
+        <v>3.3149999999999999</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B27" s="33">
         <f>RTD("wdf.rtq", ,"204014.SH", "Rt_Price")</f>
-        <v>3.3000000000000003</v>
+        <v>4.125</v>
       </c>
     </row>
   </sheetData>

--- a/交易监控/价差套利.xlsx
+++ b/交易监控/价差套利.xlsx
@@ -5248,169 +5248,169 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>5789.4000000000005</v>
+        <v>5694</v>
         <stp/>
         <stp>IC1812.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C21" s="1"/>
       </tp>
       <tp>
-        <v>3829.8</v>
+        <v>3733.4</v>
         <stp/>
         <stp>IF1812.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C16" s="1"/>
       </tp>
       <tp>
-        <v>2719.2000000000003</v>
+        <v>2643.8</v>
         <stp/>
         <stp>IH1812.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>3903</v>
+        <v>3789.6</v>
         <stp/>
         <stp>IF1806.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C14" s="1"/>
       </tp>
       <tp>
-        <v>2716</v>
+        <v>2632</v>
         <stp/>
         <stp>IH1809.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>3879</v>
+        <v>0</v>
         <stp/>
         <stp>IF1805.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>5975.8</v>
+        <v>5877</v>
         <stp/>
         <stp>IC1806.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C19" s="1"/>
       </tp>
       <tp>
-        <v>5969</v>
+        <v>0</v>
         <stp/>
         <stp>IC1805.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C18" s="1"/>
       </tp>
       <tp>
-        <v>5871</v>
+        <v>5769</v>
         <stp/>
         <stp>IC1809.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C20" s="1"/>
       </tp>
       <tp>
-        <v>2720.2000000000003</v>
+        <v>0</v>
         <stp/>
         <stp>IH1805.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>2736.4</v>
+        <v>2646.8</v>
         <stp/>
         <stp>IH1806.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>3849</v>
+        <v>3740.6</v>
         <stp/>
         <stp>IF1809.CFE</stp>
         <stp>Ask_Price1</stp>
         <tr r="C15" s="1"/>
       </tp>
       <tp>
-        <v>2715.6</v>
+        <v>2631.6</v>
         <stp/>
         <stp>IH1812.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B11" s="1"/>
       </tp>
       <tp>
-        <v>3824.4</v>
+        <v>3729</v>
         <stp/>
         <stp>IF1812.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B16" s="1"/>
       </tp>
       <tp>
-        <v>5775.8</v>
+        <v>5688.6</v>
         <stp/>
         <stp>IC1812.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>2735.2000000000003</v>
+        <v>2646</v>
         <stp/>
         <stp>IH1806.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>2720</v>
+        <v>0</v>
         <stp/>
         <stp>IH1805.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>5867.8</v>
+        <v>5761.2</v>
         <stp/>
         <stp>IC1809.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>5967</v>
+        <v>0</v>
         <stp/>
         <stp>IC1805.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B18" s="1"/>
       </tp>
       <tp>
-        <v>5975</v>
+        <v>5874.8</v>
         <stp/>
         <stp>IC1806.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>3878.8</v>
+        <v>0</v>
         <stp/>
         <stp>IF1805.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B13" s="1"/>
       </tp>
       <tp>
-        <v>2714</v>
+        <v>2630</v>
         <stp/>
         <stp>IH1809.CFE</stp>
         <stp>Bid_Price1</stp>
         <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>3902.6</v>
+        <v>3789.2000000000003</v>
         <stp/>
         <stp>IF1806.CFE</stp>
         <stp>Bid_Price1</stp>
+        <tr r="B15" s="1"/>
         <tr r="B14" s="1"/>
-        <tr r="B15" s="1"/>
-      </tp>
-      <tp>
-        <v>28</v>
+      </tp>
+      <tp>
+        <v>33</v>
         <stp/>
         <stp>M.DCE</stp>
         <stp>Ask_Volume1</stp>
@@ -5418,7 +5418,7 @@
         <tr r="J4" s="1"/>
       </tp>
       <tp>
-        <v>204</v>
+        <v>415</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>Ask_Volume1</stp>
@@ -5426,7 +5426,7 @@
         <tr r="J2" s="1"/>
       </tp>
       <tp>
-        <v>5515</v>
+        <v>5516</v>
         <stp/>
         <stp>SR.CZC</stp>
         <stp>Bid_Price1</stp>
@@ -5434,7 +5434,7 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>2957</v>
+        <v>3035</v>
         <stp/>
         <stp>M.DCE</stp>
         <stp>Ask_Price1</stp>
@@ -5442,7 +5442,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>3613</v>
+        <v>3577</v>
         <stp/>
         <stp>RB.SHF</stp>
         <stp>Bid_Price1</stp>
@@ -5450,7 +5450,7 @@
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>871</v>
+        <v>606</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>Bid_Volume1</stp>
@@ -5458,7 +5458,7 @@
         <tr r="I2" s="1"/>
       </tp>
       <tp>
-        <v>10</v>
+        <v>244</v>
         <stp/>
         <stp>M.DCE</stp>
         <stp>Bid_Volume1</stp>
@@ -5466,7 +5466,7 @@
         <tr r="I4" s="1"/>
       </tp>
       <tp>
-        <v>462.5</v>
+        <v>454</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>Rt_Price</stp>
@@ -5474,7 +5474,7 @@
         <tr r="H2" s="1"/>
       </tp>
       <tp>
-        <v>463</v>
+        <v>454.5</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>Ask_Price1</stp>
@@ -5482,14 +5482,14 @@
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>0.34</v>
+        <v>-0.55999999999999994</v>
         <stp/>
         <stp>HSI.HI</stp>
         <stp>PctChg</stp>
         <tr r="E24" s="1"/>
       </tp>
       <tp>
-        <v>2956</v>
+        <v>3034</v>
         <stp/>
         <stp>M.DCE</stp>
         <stp>Bid_Price1</stp>
@@ -5497,7 +5497,7 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>462.5</v>
+        <v>454</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>Bid_Price1</stp>
@@ -5505,44 +5505,44 @@
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>3615</v>
+        <v>3578</v>
         <stp/>
         <stp>RB.SHF</stp>
         <stp>Ask_Price1</stp>
+        <tr r="G3" s="1"/>
         <tr r="H3" s="1"/>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>5516</v>
+      </tp>
+      <tp>
+        <v>5517</v>
         <stp/>
         <stp>SR.CZC</stp>
         <stp>Ask_Price1</stp>
+        <tr r="H5" s="1"/>
         <tr r="G5" s="1"/>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp>
-        <v>2735.2000000000003</v>
+      </tp>
+      <tp>
+        <v>2646.8</v>
         <stp/>
         <stp>IH1806.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>3849</v>
+        <v>3739.4</v>
         <stp/>
         <stp>IF1809.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>2720</v>
+        <v>0</v>
         <stp/>
         <stp>IH1805.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>5871</v>
+        <v>5765.8</v>
         <stp/>
         <stp>IC1809.CFE</stp>
         <stp>Rt_Price</stp>
@@ -5550,15 +5550,15 @@
         <tr r="D20" s="1"/>
       </tp>
       <tp>
-        <v>5967.2</v>
+        <v>0</v>
         <stp/>
         <stp>IC1805.CFE</stp>
         <stp>Rt_Price</stp>
+        <tr r="I18" s="1"/>
         <tr r="D18" s="1"/>
-        <tr r="I18" s="1"/>
-      </tp>
-      <tp>
-        <v>5975.2</v>
+      </tp>
+      <tp>
+        <v>5874.8</v>
         <stp/>
         <stp>IC1806.CFE</stp>
         <stp>Rt_Price</stp>
@@ -5566,64 +5566,64 @@
         <tr r="I19" s="1"/>
       </tp>
       <tp>
-        <v>3878.8</v>
+        <v>0</v>
         <stp/>
         <stp>IF1805.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D13" s="1"/>
       </tp>
       <tp>
-        <v>3903</v>
+        <v>3789.2000000000003</v>
         <stp/>
         <stp>IF1806.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>2715</v>
+        <v>2631</v>
         <stp/>
         <stp>IH1809.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>2715.6</v>
+        <v>2635.6</v>
         <stp/>
         <stp>IH1812.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>3824.6</v>
+        <v>3731</v>
         <stp/>
         <stp>IF1812.CFE</stp>
         <stp>Rt_Price</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>5779.2</v>
+        <v>5699.2</v>
         <stp/>
         <stp>IC1812.CFE</stp>
         <stp>Rt_Price</stp>
+        <tr r="I21" s="1"/>
         <tr r="D21" s="1"/>
-        <tr r="I21" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.18</v>
+      </tp>
+      <tp>
+        <v>-0.2</v>
         <stp/>
         <stp>RB.SHF</stp>
         <stp>PctChg</stp>
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>0.02</v>
+        <v>-0.2</v>
         <stp/>
         <stp>SR.CZC</stp>
         <stp>PctChg</stp>
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>64</v>
+        <v>4</v>
         <stp/>
         <stp>SR.CZC</stp>
         <stp>Bid_Volume1</stp>
@@ -5631,7 +5631,7 @@
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>300</v>
+        <v>234</v>
         <stp/>
         <stp>RB.SHF</stp>
         <stp>Ask_Volume1</stp>
@@ -5639,28 +5639,28 @@
         <tr r="J3" s="1"/>
       </tp>
       <tp>
-        <v>1.0100000000000002</v>
+        <v>-0.27999999999999997</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>PctChg</stp>
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>1.6400000000000001</v>
+        <v>-0.04</v>
         <stp/>
         <stp>510050.SH</stp>
         <stp>PctChg</stp>
         <tr r="C2" s="1"/>
       </tp>
       <tp>
-        <v>1.4700000000000002</v>
+        <v>-0.16</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>PctChg</stp>
         <tr r="C1" s="1"/>
       </tp>
       <tp>
-        <v>5</v>
+        <v>12</v>
         <stp/>
         <stp>RB.SHF</stp>
         <stp>Bid_Volume1</stp>
@@ -5668,21 +5668,21 @@
         <tr r="I3" s="1"/>
       </tp>
       <tp>
-        <v>0.62000000000000011</v>
+        <v>-0.86</v>
         <stp/>
         <stp>HSCEI.HI</stp>
         <stp>PctChg</stp>
         <tr r="E25" s="1"/>
       </tp>
       <tp>
-        <v>0.36000000000000004</v>
+        <v>-1.25</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>PctChg</stp>
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>297</v>
+        <v>51</v>
         <stp/>
         <stp>SR.CZC</stp>
         <stp>Ask_Volume1</stp>
@@ -5690,161 +5690,161 @@
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>3.899</v>
+        <v>3.8109999999999999</v>
         <stp/>
         <stp>510300.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="H24" s="1"/>
       </tp>
       <tp>
-        <v>3903.06</v>
+        <v>3816.5</v>
         <stp/>
         <stp>000300.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B4" s="1"/>
       </tp>
       <tp>
-        <v>2.7330000000000001</v>
+        <v>2.6539999999999999</v>
         <stp/>
         <stp>510050.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B2" s="1"/>
       </tp>
       <tp>
-        <v>2740.53</v>
+        <v>2661.29</v>
         <stp/>
         <stp>000016.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B1" s="1"/>
       </tp>
       <tp>
-        <v>3.0700000000000003</v>
+        <v>3.2050000000000001</v>
         <stp/>
         <stp>204002.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B25" s="1"/>
       </tp>
       <tp>
-        <v>3.09</v>
+        <v>3.2549999999999999</v>
         <stp/>
         <stp>204001.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B24" s="1"/>
       </tp>
       <tp>
-        <v>3.3149999999999999</v>
+        <v>4.4350000000000005</v>
         <stp/>
         <stp>204007.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>4.125</v>
+        <v>3.8200000000000003</v>
         <stp/>
         <stp>204014.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B27" s="1"/>
       </tp>
       <tp>
-        <v>1.49</v>
+        <v>-0.82000000000000006</v>
         <stp/>
         <stp>IF1812.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F16" s="1"/>
       </tp>
       <tp>
-        <v>0.93</v>
+        <v>-1.33</v>
         <stp/>
         <stp>IC1812.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F21" s="1"/>
       </tp>
       <tp>
-        <v>1.6500000000000001</v>
+        <v>-0.3</v>
         <stp/>
         <stp>IH1812.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>-0.2</v>
+        <v>0</v>
         <stp/>
         <stp>IC1805.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F18" s="1"/>
       </tp>
       <tp>
-        <v>0.73</v>
+        <v>-1.59</v>
         <stp/>
         <stp>IC1806.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F19" s="1"/>
       </tp>
       <tp>
-        <v>0.29000000000000004</v>
+        <v>0</v>
         <stp/>
         <stp>IF1805.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F13" s="1"/>
       </tp>
       <tp>
-        <v>1.4700000000000002</v>
+        <v>-0.6</v>
         <stp/>
         <stp>IF1806.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>1.7500000000000002</v>
+        <v>-0.3</v>
         <stp/>
         <stp>IH1809.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>1.7000000000000002</v>
+        <v>-0.29000000000000004</v>
         <stp/>
         <stp>IH1806.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>1.55</v>
+        <v>-0.89</v>
         <stp/>
         <stp>IF1809.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F15" s="1"/>
       </tp>
       <tp>
-        <v>0.69000000000000006</v>
+        <v>0</v>
         <stp/>
         <stp>IH1805.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>0.98</v>
+        <v>-1.54</v>
         <stp/>
         <stp>IC1809.CFE</stp>
         <stp>PctChg</stp>
         <tr r="F20" s="1"/>
       </tp>
       <tp>
-        <v>5995.1500000000005</v>
+        <v>5917.8</v>
         <stp/>
         <stp>000905.SH</stp>
         <stp>Rt_Price</stp>
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>-3.75</v>
+        <v>-0.87000000000000011</v>
         <stp/>
         <stp>I.DCE</stp>
         <stp>PctChg</stp>
         <tr r="K2" s="1"/>
       </tp>
       <tp>
-        <v>-0.13999999999999999</v>
+        <v>0.17</v>
         <stp/>
         <stp>M.DCE</stp>
         <stp>PctChg</stp>
@@ -6171,11 +6171,11 @@
       </c>
       <c r="B1" s="16">
         <f>RTD("wdf.rtq", ,"000016.SH", "Rt_Price")</f>
-        <v>2740.53</v>
+        <v>2661.29</v>
       </c>
       <c r="C1" s="24">
         <f>RTD("wdf.rtq", ,"000016.SH", "PctChg")/100</f>
-        <v>1.4700000000000001E-2</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="10" t="s">
@@ -6200,11 +6200,11 @@
       </c>
       <c r="B2" s="11">
         <f>RTD("wdf.rtq", ,"510050.SH", "Rt_Price")</f>
-        <v>2.7330000000000001</v>
+        <v>2.6539999999999999</v>
       </c>
       <c r="C2" s="25">
         <f>RTD("wdf.rtq", ,"510050.SH", "PctChg")/100</f>
-        <v>1.6400000000000001E-2</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="22" t="s">
@@ -6212,27 +6212,27 @@
       </c>
       <c r="F2" s="22">
         <f>RTD("wdf.rtq", ,"I.DCE", "Bid_Price1","RT_Price")</f>
-        <v>462.5</v>
+        <v>454</v>
       </c>
       <c r="G2" s="22">
         <f>RTD("wdf.rtq", ,"I.DCE", "Ask_Price1","RT_Price")</f>
-        <v>463</v>
+        <v>454.5</v>
       </c>
       <c r="H2" s="22">
         <f>RTD("wdf.rtq", ,"I.DCE", "Rt_Price","RT_Price")</f>
-        <v>462.5</v>
+        <v>454</v>
       </c>
       <c r="I2" s="23">
         <f>RTD("wdf.rtq", ,"I.DCE", "Bid_Volume1","RT_Price")</f>
-        <v>871</v>
+        <v>606</v>
       </c>
       <c r="J2" s="23">
         <f>RTD("wdf.rtq", ,"I.DCE", "Ask_Volume1","RT_Price")</f>
-        <v>204</v>
+        <v>415</v>
       </c>
       <c r="K2" s="28">
         <f>RTD("wdf.rtq", ,"I.DCE", "PctChg")/100</f>
-        <v>-3.7499999999999999E-2</v>
+        <v>-8.7000000000000011E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B3" s="14">
         <f>B2*1000-B1</f>
-        <v>-7.5300000000002001</v>
+        <v>-7.2899999999999636</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="12"/>
@@ -6250,27 +6250,27 @@
       </c>
       <c r="F3" s="22">
         <f>RTD("wdf.rtq", ,"RB.SHF", "Bid_Price1","RT_Price")</f>
-        <v>3613</v>
+        <v>3577</v>
       </c>
       <c r="G3" s="22">
         <f>RTD("wdf.rtq", ,"RB.SHF", "Ask_Price1")</f>
-        <v>3615</v>
+        <v>3578</v>
       </c>
       <c r="H3" s="22">
         <f>RTD("wdf.rtq", ,"RB.SHF", "Ask_Price1")</f>
-        <v>3615</v>
+        <v>3578</v>
       </c>
       <c r="I3" s="23">
         <f>RTD("wdf.rtq", ,"RB.SHF", "Bid_Volume1","RT_Price")</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J3" s="23">
         <f>RTD("wdf.rtq", ,"RB.SHF", "Ask_Volume1","RT_Price")</f>
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="K3" s="28">
         <f>RTD("wdf.rtq", ,"RB.SHF", "PctChg")/100</f>
-        <v>-1.18E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -6281,11 +6281,11 @@
       </c>
       <c r="B4" s="16">
         <f>RTD("wdf.rtq", ,"000300.SH", "Rt_Price")</f>
-        <v>3903.06</v>
+        <v>3816.5</v>
       </c>
       <c r="C4" s="25">
         <f>RTD("wdf.rtq", ,"000300.SH", "PctChg")/100</f>
-        <v>1.0100000000000003E-2</v>
+        <v>-2.7999999999999995E-3</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="22" t="s">
@@ -6293,27 +6293,27 @@
       </c>
       <c r="F4" s="22">
         <f>RTD("wdf.rtq", ,"M.DCE", "Bid_Price1","RT_Price")</f>
-        <v>2956</v>
+        <v>3034</v>
       </c>
       <c r="G4" s="22">
         <f>RTD("wdf.rtq", ,"M.DCE", "Ask_Price1")</f>
-        <v>2957</v>
+        <v>3035</v>
       </c>
       <c r="H4" s="22">
         <f>RTD("wdf.rtq", ,"M.DCE", "Ask_Price1")</f>
-        <v>2957</v>
+        <v>3035</v>
       </c>
       <c r="I4" s="23">
         <f>RTD("wdf.rtq", ,"M.DCE", "Bid_Volume1","RT_Price")</f>
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="J4" s="23">
         <f>RTD("wdf.rtq", ,"M.DCE", "Ask_Volume1","RT_Price")</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K4" s="28">
         <f>RTD("wdf.rtq", ,"M.DCE", "PctChg")/100</f>
-        <v>-1.3999999999999998E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6322,11 +6322,11 @@
       </c>
       <c r="B5" s="16">
         <f>RTD("wdf.rtq", ,"000905.SH", "Rt_Price")</f>
-        <v>5995.1500000000005</v>
+        <v>5917.8</v>
       </c>
       <c r="C5" s="25">
         <f>RTD("wdf.rtq", ,"000905.SH", "PctChg")/100</f>
-        <v>3.6000000000000003E-3</v>
+        <v>-1.2500000000000001E-2</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="22" t="s">
@@ -6334,27 +6334,27 @@
       </c>
       <c r="F5" s="22">
         <f>RTD("wdf.rtq", ,"SR.CZC", "Bid_Price1","RT_Price")</f>
-        <v>5515</v>
+        <v>5516</v>
       </c>
       <c r="G5" s="22">
         <f>RTD("wdf.rtq", ,"SR.CZC", "Ask_Price1")</f>
-        <v>5516</v>
+        <v>5517</v>
       </c>
       <c r="H5" s="22">
         <f>RTD("wdf.rtq", ,"SR.CZC", "Ask_Price1")</f>
-        <v>5516</v>
+        <v>5517</v>
       </c>
       <c r="I5" s="23">
         <f>RTD("wdf.rtq", ,"SR.CZC", "Bid_Volume1","RT_Price")</f>
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="J5" s="23">
         <f>RTD("wdf.rtq", ,"SR.CZC", "Ask_Volume1","RT_Price")</f>
-        <v>297</v>
+        <v>51</v>
       </c>
       <c r="K5" s="28">
         <f>RTD("wdf.rtq", ,"SR.CZC", "PctChg")/100</f>
-        <v>2.0000000000000001E-4</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6409,35 +6409,35 @@
       </c>
       <c r="B8" s="18">
         <f>RTD("wdf.rtq", ,"IH1805.CFE", "Bid_Price1")</f>
-        <v>2720</v>
+        <v>0</v>
       </c>
       <c r="C8" s="18">
         <f>RTD("wdf.rtq", ,"IH1805.CFE", "Ask_Price1")</f>
-        <v>2720.2000000000003</v>
+        <v>0</v>
       </c>
       <c r="D8" s="19">
         <f>RTD("wdf.rtq", ,"IH1805.CFE", "Rt_Price")</f>
-        <v>2720</v>
+        <v>0</v>
       </c>
       <c r="E8" s="22">
         <f>D8-$B$1</f>
-        <v>-20.5300000000002</v>
+        <v>-2661.29</v>
       </c>
       <c r="F8" s="35">
         <f>RTD("wdf.rtq", ,"IH1805.CFE", "PctChg")/100</f>
-        <v>6.9000000000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="20">
         <f>E8/$B$1</f>
-        <v>-7.4912516921909989E-3</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="29">
         <f>$E8+K8-$L8</f>
-        <v>-16.770000000000202</v>
+        <v>-2657.5299999999997</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" ref="I8:I10" si="0">H8-$B$3</f>
-        <v>-9.240000000000002</v>
+        <v>-2650.24</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>47</v>
@@ -6453,35 +6453,35 @@
       </c>
       <c r="B9" s="18">
         <f>RTD("wdf.rtq", ,"IH1806.CFE", "Bid_Price1")</f>
-        <v>2735.2000000000003</v>
+        <v>2646</v>
       </c>
       <c r="C9" s="18">
         <f>RTD("wdf.rtq", ,"IH1806.CFE", "Ask_Price1")</f>
-        <v>2736.4</v>
+        <v>2646.8</v>
       </c>
       <c r="D9" s="19">
         <f>RTD("wdf.rtq", ,"IH1806.CFE", "Rt_Price")</f>
-        <v>2735.2000000000003</v>
+        <v>2646.8</v>
       </c>
       <c r="E9" s="22">
         <f>D9-$B$1</f>
-        <v>-5.3299999999999272</v>
+        <v>-14.489999999999782</v>
       </c>
       <c r="F9" s="35">
         <f>RTD("wdf.rtq", ,"IH1806.CFE", "PctChg")/100</f>
-        <v>1.7000000000000001E-2</v>
+        <v>-2.9000000000000002E-3</v>
       </c>
       <c r="G9" s="20">
         <f>E9/$B$1</f>
-        <v>-1.9448792751766727E-3</v>
+        <v>-5.4447279326942126E-3</v>
       </c>
       <c r="H9" s="29">
         <f>$E9+K9-$L9</f>
-        <v>17.830000000000073</v>
+        <v>8.6700000000002184</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="0"/>
-        <v>25.360000000000273</v>
+        <v>15.960000000000182</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>34</v>
@@ -6497,35 +6497,35 @@
       </c>
       <c r="B10" s="18">
         <f>RTD("wdf.rtq", ,"IH1809.CFE", "Bid_Price1")</f>
-        <v>2714</v>
+        <v>2630</v>
       </c>
       <c r="C10" s="18">
         <f>RTD("wdf.rtq", ,"IH1809.CFE", "Ask_Price1")</f>
-        <v>2716</v>
+        <v>2632</v>
       </c>
       <c r="D10" s="19">
         <f>RTD("wdf.rtq", ,"IH1809.CFE", "Rt_Price")</f>
-        <v>2715</v>
+        <v>2631</v>
       </c>
       <c r="E10" s="22">
         <f>D10-$B$1</f>
-        <v>-25.5300000000002</v>
+        <v>-30.289999999999964</v>
       </c>
       <c r="F10" s="35">
         <f>RTD("wdf.rtq", ,"IH1809.CFE", "PctChg")/100</f>
-        <v>1.7500000000000002E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="G10" s="20">
         <f>E10/$B$1</f>
-        <v>-9.3157163030509419E-3</v>
+        <v>-1.1381698349296756E-2</v>
       </c>
       <c r="H10" s="29">
         <f>$E10+K10-$L10</f>
-        <v>43.599999999999795</v>
+        <v>38.840000000000032</v>
       </c>
       <c r="I10" s="37">
         <f t="shared" si="0"/>
-        <v>51.129999999999995</v>
+        <v>46.129999999999995</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>41</v>
@@ -6541,35 +6541,35 @@
       </c>
       <c r="B11" s="18">
         <f>RTD("wdf.rtq", ,"IH1812.CFE", "Bid_Price1")</f>
-        <v>2715.6</v>
+        <v>2631.6</v>
       </c>
       <c r="C11" s="18">
         <f>RTD("wdf.rtq", ,"IH1812.CFE", "Ask_Price1")</f>
-        <v>2719.2000000000003</v>
+        <v>2643.8</v>
       </c>
       <c r="D11" s="19">
         <f>RTD("wdf.rtq", ,"IH1812.CFE", "Rt_Price")</f>
-        <v>2715.6</v>
+        <v>2635.6</v>
       </c>
       <c r="E11" s="22">
         <f>D11-$B$1</f>
-        <v>-24.930000000000291</v>
+        <v>-25.690000000000055</v>
       </c>
       <c r="F11" s="35">
         <f>RTD("wdf.rtq", ,"IH1812.CFE", "PctChg")/100</f>
-        <v>1.6500000000000001E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="G11" s="20">
         <f>E11/$B$1</f>
-        <v>-9.0967805497477825E-3</v>
+        <v>-9.6532132912986006E-3</v>
       </c>
       <c r="H11" s="29">
         <f>$E11+K11-$L11</f>
-        <v>45.799999999999713</v>
+        <v>45.039999999999949</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" ref="I11" si="1">H11-$B$3</f>
-        <v>53.329999999999913</v>
+        <v>52.329999999999913</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>50</v>
@@ -6599,35 +6599,35 @@
       </c>
       <c r="B13" s="18">
         <f>RTD("wdf.rtq", ,"IF1805.CFE", "Bid_Price1")</f>
-        <v>3878.8</v>
+        <v>0</v>
       </c>
       <c r="C13" s="18">
         <f>RTD("wdf.rtq", ,"IF1805.CFE", "Ask_Price1")</f>
-        <v>3879</v>
+        <v>0</v>
       </c>
       <c r="D13" s="19">
         <f>RTD("wdf.rtq", ,"IF1805.CFE", "Rt_Price")</f>
-        <v>3878.8</v>
+        <v>0</v>
       </c>
       <c r="E13" s="22">
         <f>D13-$B$4</f>
-        <v>-24.259999999999764</v>
+        <v>-3816.5</v>
       </c>
       <c r="F13" s="35">
         <f>RTD("wdf.rtq", ,"IF1805.CFE", "PctChg")/100</f>
-        <v>2.9000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="20">
         <f>E13/$B$4</f>
-        <v>-6.2156359369314748E-3</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="29">
         <f>$E13+K13-L13</f>
-        <v>-17.549999999999763</v>
+        <v>-3809.79</v>
       </c>
       <c r="I13" s="37">
         <f>$H$25-H13</f>
-        <v>13.489999999999817</v>
+        <v>3804.29</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>47</v>
@@ -6645,35 +6645,35 @@
       </c>
       <c r="B14" s="18">
         <f>RTD("wdf.rtq", ,"IF1806.CFE", "Bid_Price1")</f>
-        <v>3902.6</v>
+        <v>3789.2000000000003</v>
       </c>
       <c r="C14" s="18">
         <f>RTD("wdf.rtq", ,"IF1806.CFE", "Ask_Price1")</f>
-        <v>3903</v>
+        <v>3789.6</v>
       </c>
       <c r="D14" s="19">
         <f>RTD("wdf.rtq", ,"IF1806.CFE", "Rt_Price")</f>
-        <v>3903</v>
+        <v>3789.2000000000003</v>
       </c>
       <c r="E14" s="22">
         <f>D14-$B$4</f>
-        <v>-5.999999999994543E-2</v>
+        <v>-27.299999999999727</v>
       </c>
       <c r="F14" s="35">
         <f>RTD("wdf.rtq", ,"IF1806.CFE", "PctChg")/100</f>
-        <v>1.4700000000000001E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="G14" s="20">
         <f>E14/$B$4</f>
-        <v>-1.5372553842355852E-5</v>
+        <v>-7.15315079261096E-3</v>
       </c>
       <c r="H14" s="29">
         <f>$E14+K14-L14</f>
-        <v>26.070000000000054</v>
+        <v>-1.1699999999997281</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" ref="I14:I15" si="2">$H$25-H14</f>
-        <v>-30.13</v>
+        <v>-4.3300000000002719</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>34</v>
@@ -6691,35 +6691,35 @@
       </c>
       <c r="B15" s="18">
         <f>RTD("wdf.rtq", ,"IF1806.CFE", "Bid_Price1")</f>
-        <v>3902.6</v>
+        <v>3789.2000000000003</v>
       </c>
       <c r="C15" s="18">
         <f>RTD("wdf.rtq", ,"IF1809.CFE", "Ask_Price1")</f>
-        <v>3849</v>
+        <v>3740.6</v>
       </c>
       <c r="D15" s="19">
         <f>RTD("wdf.rtq", ,"IF1809.CFE", "Rt_Price")</f>
-        <v>3849</v>
+        <v>3739.4</v>
       </c>
       <c r="E15" s="22">
         <f>D15-$B$4</f>
-        <v>-54.059999999999945</v>
+        <v>-77.099999999999909</v>
       </c>
       <c r="F15" s="35">
         <f>RTD("wdf.rtq", ,"IF1809.CFE", "PctChg")/100</f>
-        <v>1.55E-2</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="G15" s="20">
         <f>E15/$B$4</f>
-        <v>-1.3850671011975206E-2</v>
+        <v>-2.0201755535176186E-2</v>
       </c>
       <c r="H15" s="29">
         <f>$E15+K15-L15</f>
-        <v>19.220000000000052</v>
+        <v>-3.8199999999999115</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="2"/>
-        <v>-23.279999999999998</v>
+        <v>-1.6800000000000885</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>41</v>
@@ -6737,35 +6737,35 @@
       </c>
       <c r="B16" s="18">
         <f>RTD("wdf.rtq", ,"IF1812.CFE", "Bid_Price1")</f>
-        <v>3824.4</v>
+        <v>3729</v>
       </c>
       <c r="C16" s="18">
         <f>RTD("wdf.rtq", ,"IF1812.CFE", "Ask_Price1")</f>
-        <v>3829.8</v>
+        <v>3733.4</v>
       </c>
       <c r="D16" s="19">
         <f>RTD("wdf.rtq", ,"IF1812.CFE", "Rt_Price")</f>
-        <v>3824.6</v>
+        <v>3731</v>
       </c>
       <c r="E16" s="22">
         <f>D16-$B$4</f>
-        <v>-78.460000000000036</v>
+        <v>-85.5</v>
       </c>
       <c r="F16" s="35">
         <f>RTD("wdf.rtq", ,"IF1812.CFE", "PctChg")/100</f>
-        <v>1.49E-2</v>
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="G16" s="20">
         <f>E16/$B$4</f>
-        <v>-2.0102176241205628E-2</v>
+        <v>-2.2402725009825757E-2</v>
       </c>
       <c r="H16" s="29">
         <f>$E16+K16-L16</f>
-        <v>-3.730000000000036</v>
+        <v>-10.77</v>
       </c>
       <c r="I16" s="37">
         <f t="shared" ref="I16" si="3">$H$25-H16</f>
-        <v>-0.32999999999990948</v>
+        <v>5.27</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>41</v>
@@ -6798,35 +6798,35 @@
       </c>
       <c r="B18" s="18">
         <f>RTD("wdf.rtq", ,"IC1805.CFE", "Bid_Price1")</f>
-        <v>5967</v>
+        <v>0</v>
       </c>
       <c r="C18" s="18">
         <f>RTD("wdf.rtq", ,"IC1805.CFE", "Ask_Price1")</f>
-        <v>5969</v>
+        <v>0</v>
       </c>
       <c r="D18" s="19">
         <f>RTD("wdf.rtq", ,"IC1805.CFE", "Rt_Price")</f>
-        <v>5967.2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="22">
         <f>D18-$B$5</f>
-        <v>-27.950000000000728</v>
+        <v>-5917.8</v>
       </c>
       <c r="F18" s="35">
         <f>RTD("wdf.rtq", ,"IC1805.CFE", "PctChg")/100</f>
-        <v>-2E-3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="20">
         <f>E18/$B$5</f>
-        <v>-4.6621018656748748E-3</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="29">
         <f>$E18+K18</f>
-        <v>-20.210000000000726</v>
+        <v>-5910.06</v>
       </c>
       <c r="I18" s="37">
         <f>RTD("wdf.rtq", ,"IC1805.CFE", "Rt_Price")</f>
-        <v>5967.2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>47</v>
@@ -6844,35 +6844,35 @@
       </c>
       <c r="B19" s="18">
         <f>RTD("wdf.rtq", ,"IC1806.CFE", "Bid_Price1")</f>
-        <v>5975</v>
+        <v>5874.8</v>
       </c>
       <c r="C19" s="18">
         <f>RTD("wdf.rtq", ,"IC1806.CFE", "Ask_Price1")</f>
-        <v>5975.8</v>
+        <v>5877</v>
       </c>
       <c r="D19" s="19">
         <f>RTD("wdf.rtq", ,"IC1806.CFE", "Rt_Price")</f>
-        <v>5975.2</v>
+        <v>5874.8</v>
       </c>
       <c r="E19" s="22">
         <f>D19-$B$5</f>
-        <v>-19.950000000000728</v>
+        <v>-43</v>
       </c>
       <c r="F19" s="35">
         <f>RTD("wdf.rtq", ,"IC1806.CFE", "PctChg")/100</f>
-        <v>7.3000000000000001E-3</v>
+        <v>-1.5900000000000001E-2</v>
       </c>
       <c r="G19" s="20">
         <f>E19/$B$5</f>
-        <v>-3.3276898826552674E-3</v>
+        <v>-7.2662137956673086E-3</v>
       </c>
       <c r="H19" s="29">
         <f>$E19+K19</f>
-        <v>13.429999999999275</v>
+        <v>-9.6199999999999974</v>
       </c>
       <c r="I19" s="37">
         <f>RTD("wdf.rtq", ,"IC1806.CFE", "Rt_Price")</f>
-        <v>5975.2</v>
+        <v>5874.8</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>34</v>
@@ -6887,35 +6887,35 @@
       </c>
       <c r="B20" s="18">
         <f>RTD("wdf.rtq", ,"IC1809.CFE", "Bid_Price1")</f>
-        <v>5867.8</v>
+        <v>5761.2</v>
       </c>
       <c r="C20" s="18">
         <f>RTD("wdf.rtq", ,"IC1809.CFE", "Ask_Price1")</f>
-        <v>5871</v>
+        <v>5769</v>
       </c>
       <c r="D20" s="19">
         <f>RTD("wdf.rtq", ,"IC1809.CFE", "Rt_Price")</f>
-        <v>5871</v>
+        <v>5765.8</v>
       </c>
       <c r="E20" s="22">
         <f>D20-$B$5</f>
-        <v>-124.15000000000055</v>
+        <v>-152</v>
       </c>
       <c r="F20" s="35">
         <f>RTD("wdf.rtq", ,"IC1809.CFE", "PctChg")/100</f>
-        <v>9.7999999999999997E-3</v>
+        <v>-1.54E-2</v>
       </c>
       <c r="G20" s="20">
         <f>E20/$B$5</f>
-        <v>-2.0708405961485623E-2</v>
+        <v>-2.5685220859103044E-2</v>
       </c>
       <c r="H20" s="29">
         <f>$E20+K20</f>
-        <v>-65.690000000000538</v>
+        <v>-93.539999999999992</v>
       </c>
       <c r="I20" s="37">
         <f>RTD("wdf.rtq", ,"IC1809.CFE", "Rt_Price")</f>
-        <v>5871</v>
+        <v>5765.8</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>41</v>
@@ -6930,35 +6930,35 @@
       </c>
       <c r="B21" s="18">
         <f>RTD("wdf.rtq", ,"IC1812.CFE", "Bid_Price1")</f>
-        <v>5775.8</v>
+        <v>5688.6</v>
       </c>
       <c r="C21" s="18">
         <f>RTD("wdf.rtq", ,"IC1812.CFE", "Ask_Price1")</f>
-        <v>5789.4000000000005</v>
+        <v>5694</v>
       </c>
       <c r="D21" s="19">
         <f>RTD("wdf.rtq", ,"IC1812.CFE", "Rt_Price")</f>
-        <v>5779.2</v>
+        <v>5699.2</v>
       </c>
       <c r="E21" s="22">
         <f>D21-$B$5</f>
-        <v>-215.95000000000073</v>
+        <v>-218.60000000000036</v>
       </c>
       <c r="F21" s="35">
         <f>RTD("wdf.rtq", ,"IC1812.CFE", "PctChg")/100</f>
-        <v>9.300000000000001E-3</v>
+        <v>-1.3300000000000001E-2</v>
       </c>
       <c r="G21" s="20">
         <f>E21/$B$5</f>
-        <v>-3.6020783466635647E-2</v>
+        <v>-3.6939403156578517E-2</v>
       </c>
       <c r="H21" s="29">
         <f>$E21+K21</f>
-        <v>-157.49000000000072</v>
+        <v>-160.14000000000036</v>
       </c>
       <c r="I21" s="37">
         <f>RTD("wdf.rtq", ,"IC1812.CFE", "Rt_Price")</f>
-        <v>5779.2</v>
+        <v>5699.2</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>44</v>
@@ -6987,21 +6987,21 @@
       </c>
       <c r="B24" s="33">
         <f>RTD("wdf.rtq", ,"204001.SH", "Rt_Price")</f>
-        <v>3.09</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="6">
         <f>RTD("wdf.rtq", ,"HSI.HI", "PctChg")/100</f>
-        <v>3.4000000000000002E-3</v>
+        <v>-5.5999999999999991E-3</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>38</v>
       </c>
       <c r="H24" s="39">
         <f>RTD("wdf.rtq", ,"510300.SH", "Rt_Price")</f>
-        <v>3.899</v>
+        <v>3.8109999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="B25" s="33">
         <f>RTD("wdf.rtq", ,"204002.SH", "Rt_Price")</f>
-        <v>3.0700000000000003</v>
+        <v>3.2050000000000001</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="32" t="s">
@@ -7018,14 +7018,14 @@
       </c>
       <c r="E25" s="6">
         <f>RTD("wdf.rtq", ,"HSCEI.HI", "PctChg")/100</f>
-        <v>6.2000000000000006E-3</v>
+        <v>-8.6E-3</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="39">
         <f>H24*1000-B4</f>
-        <v>-4.0599999999999454</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="B26" s="33">
         <f>RTD("wdf.rtq", ,"204007.SH", "Rt_Price")</f>
-        <v>3.3149999999999999</v>
+        <v>4.4350000000000005</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B27" s="33">
         <f>RTD("wdf.rtq", ,"204014.SH", "Rt_Price")</f>
-        <v>4.125</v>
+        <v>3.8200000000000003</v>
       </c>
     </row>
   </sheetData>
